--- a/biology/Histoire de la zoologie et de la botanique/Johan_Ernst_Gunnerus/Johan_Ernst_Gunnerus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johan_Ernst_Gunnerus/Johan_Ernst_Gunnerus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johan Ernst Gunnerus est un homme d'Église et un naturaliste norvégien, né le 26 février 1718 à Christiania et mort le 25 septembre 1773 à Kristiansund[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johan Ernst Gunnerus est un homme d'Église et un naturaliste norvégien, né le 26 février 1718 à Christiania et mort le 25 septembre 1773 à Kristiansund.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est évêque de Trondheim à partir de 1758 et professeur de théologie à Copenhague.
 Passionné par l'histoire naturelle, il constitue une grande collection de spécimens grâce à des voyages dans les différentes régions norvégiennes, notamment au centre et au nord.
@@ -548,7 +562,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hans opvækkelige Hyrdebrev til det velærværdige, høj- og vellærde Præsteskab i Tronhjems Stift.   J. C. Winding, Trondheim 1758 (Faksimile: Tronheim 1997,  (ISBN 82-7113-075-7); Deutsche Ausgabe: Erwecklicher Hirten-Brief and die Wohlehrwürdige, Hoch- und Wohlgelahrte Priesterschaft im Stifte Druntheim, von dem Verfasser aus dem Dänischen ins Deutsche übersetzt, und mit einigen zur Druntheimischen gelehrten Historie gehörenden Anmerkungen vermehret. Pelt, Trondheim 1758)
 De modis adquirendi ius in re et praesertim dominium secundum principia iuris naturalis. Croeker, Jena 1747 (Dissertation der Universität Jena)
